--- a/Shading Nets/my_graphs/FAO Land Change by Activities.xlsx
+++ b/Shading Nets/my_graphs/FAO Land Change by Activities.xlsx
@@ -414,10 +414,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>-0.0006299863528873573</v>
+        <v>-1.172425289297507E-06</v>
       </c>
       <c r="C2">
-        <v>-5.756772532095056E-05</v>
+        <v>-1.071354271964253E-07</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -425,10 +425,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>-0.02755409166555012</v>
+        <v>-5.127906955237904E-05</v>
       </c>
       <c r="C3">
-        <v>-0.007946346701920959</v>
+        <v>-1.478841219437754E-05</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>-0.2021601971285492</v>
+        <v>-0.0003762267664200181</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -447,10 +447,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>-0.001041883293312562</v>
+        <v>-1.938979028004439E-06</v>
       </c>
       <c r="C5">
-        <v>-9.520658815997951E-05</v>
+        <v>-1.771825875462874E-07</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -458,10 +458,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>-0.001772887490233188</v>
+        <v>-3.299401782896894E-06</v>
       </c>
       <c r="C6">
-        <v>-0.0001620052283257678</v>
+        <v>-3.014970459958022E-07</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -469,10 +469,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>-0.3568475919528282</v>
+        <v>-0.0006641050895268563</v>
       </c>
       <c r="C7">
-        <v>-0.03258998091854437</v>
+        <v>-6.065102496677355E-05</v>
       </c>
     </row>
   </sheetData>
